--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T21:00:04-05:00</t>
+    <t>2021-12-08T12:48:12-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T12:48:12-05:00</t>
+    <t>2021-12-08T13:27:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>todo</t>
+    <t>Category codes for liquid diet observations</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T13:27:26-05:00</t>
+    <t>2021-12-08T13:43:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T13:43:45-05:00</t>
+    <t>2021-12-09T02:52:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T02:52:24-05:00</t>
+    <t>2021-12-10T12:07:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T12:07:05-05:00</t>
+    <t>2021-12-10T13:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,7 +144,7 @@
     <t>thin</t>
   </si>
   <si>
-    <t>Regular</t>
+    <t>Thin</t>
   </si>
   <si>
     <t>slightly-thick</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T13:11:15-05:00</t>
+    <t>2021-12-15T22:58:34-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T22:58:34-05:00</t>
+    <t>2021-12-16T13:39:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:39:40-05:00</t>
+    <t>2021-12-20T13:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T13:33:32-05:00</t>
+    <t>2021-12-20T13:52:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T13:52:46-05:00</t>
+    <t>2021-12-23T13:33:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-23T13:33:36-05:00</t>
+    <t>2021-12-28T14:33:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-28T14:33:13-05:00</t>
+    <t>2021-12-29T13:00:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-29T13:00:19-05:00</t>
+    <t>2022-03-14T15:55:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T15:55:03-04:00</t>
+    <t>2022-03-24T15:01:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T15:01:17-04:00</t>
+    <t>2022-03-24T23:37:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T23:37:25-04:00</t>
+    <t>2022-03-26T00:24:52-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T00:24:52-04:00</t>
+    <t>2022-03-28T21:41:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T21:41:27-04:00</t>
+    <t>2022-03-29T12:50:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:50:12-04:00</t>
+    <t>2022-03-29T14:17:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T14:17:18-04:00</t>
+    <t>2022-04-05T11:13:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T11:13:11-04:00</t>
+    <t>2022-04-05T12:11:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T12:11:10-04:00</t>
+    <t>2022-04-15T08:42:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T08:42:50-04:00</t>
+    <t>2022-04-15T09:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T09:25:37-04:00</t>
+    <t>2022-04-15T12:12:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T12:12:07-04:00</t>
+    <t>2022-04-18T11:35:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T11:35:28-04:00</t>
+    <t>2022-04-18T14:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:57:29-04:00</t>
+    <t>2022-04-27T11:54:23-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T11:54:23-04:00</t>
+    <t>2022-04-29T14:30:00-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T14:30:00-04:00</t>
+    <t>2022-05-03T12:45:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T12:45:05-04:00</t>
+    <t>2022-05-03T15:05:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:05:17-04:00</t>
+    <t>2022-05-04T09:54:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHLiquidDietCS.xlsx
+++ b/CodeSystem-SPLASCHLiquidDietCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T09:54:10-04:00</t>
+    <t>2022-05-04T12:01:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
